--- a/parts_get_ag.xlsx
+++ b/parts_get_ag.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yann/DEV/PROJECTS/ferraris-arduino-sensor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26132EEA-8581-D64B-93F4-E01D618C349B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7A2754-D33B-9F4F-851E-4764C6F6AD95}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="2400" windowWidth="31640" windowHeight="19040" xr2:uid="{9FE2430C-C6B5-7443-8EE7-8D272F4FF6B3}"/>
+    <workbookView xWindow="-33720" yWindow="3060" windowWidth="31640" windowHeight="19040" xr2:uid="{9FE2430C-C6B5-7443-8EE7-8D272F4FF6B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Get-AG" sheetId="2" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>680 kOhm 5% 1/4W</t>
   </si>
   <si>
-    <t>https://www.digikey.de/product-detail/en/cree-inc/C4SMG-BJF-CQ0T0351/C4SMG-BJF-CQ0T0351-ND/4793586</t>
-  </si>
-  <si>
     <t>39 Ohm 5% 1W</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>https://www.digikey.de/product-detail/en/vishay-semiconductor-opto-division/CNY70/751-1025-ND/1681159</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/cree-inc/C5SMF-BJE-CR0U0451/C5SMF-BJE-CR0U0451-ND/4793773</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -573,16 +573,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>1</v>
@@ -615,10 +615,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -693,7 +693,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -715,10 +715,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -743,7 +743,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -765,10 +765,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -890,35 +890,35 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="0"/>
-        <v>1.2</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="F14" s="5">
         <v>0.19</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="1"/>
-        <v>1.4279999999999999</v>
+        <v>2.1419999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -940,10 +940,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -965,10 +965,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="8">
         <v>9</v>
@@ -990,10 +990,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="8">
         <v>9</v>
@@ -1015,18 +1015,18 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="4">
         <f>SUM(E2:E18)</f>
-        <v>228.74999999999994</v>
+        <v>229.34999999999997</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="6">
         <f>SUM(G2:G18)</f>
-        <v>242.92399999999998</v>
+        <v>243.63799999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1038,15 +1038,15 @@
     <hyperlink ref="B4" r:id="rId5" xr:uid="{4E6E5FC3-EBA9-1B47-BBA7-74C05929F1BE}"/>
     <hyperlink ref="B2" r:id="rId6" xr:uid="{036C82DB-48E0-5941-A9BA-16BC36CBA1EB}"/>
     <hyperlink ref="B12" r:id="rId7" xr:uid="{B1573C03-5BE5-5B4E-BCC2-A7C85A00C79B}"/>
-    <hyperlink ref="B14" r:id="rId8" xr:uid="{13049B8A-2F97-7D46-B519-3F7532D491B3}"/>
-    <hyperlink ref="B9" r:id="rId9" xr:uid="{9D31D13F-4F52-E541-BCC1-489A72999F1E}"/>
-    <hyperlink ref="B15" r:id="rId10" xr:uid="{67A4CDAB-788E-B241-BA14-C8CFF49550F0}"/>
-    <hyperlink ref="B16" r:id="rId11" xr:uid="{8CB4B3FE-0B5D-F74A-880A-70D8FB9F49EC}"/>
-    <hyperlink ref="B3" r:id="rId12" xr:uid="{839367A2-FB5F-974D-8757-95B772960118}"/>
-    <hyperlink ref="B6" r:id="rId13" xr:uid="{10E6BA87-5EA2-644C-953B-BA116FF940DC}"/>
-    <hyperlink ref="B7" r:id="rId14" xr:uid="{A0F09149-FBF7-314A-B72B-854C8AC5AEA2}"/>
-    <hyperlink ref="B17" r:id="rId15" xr:uid="{85FD1496-9164-284D-BAD5-FE14E690BD15}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{05FD0267-EE9A-5C4F-9E39-1E61D24FA86C}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{9D31D13F-4F52-E541-BCC1-489A72999F1E}"/>
+    <hyperlink ref="B15" r:id="rId9" xr:uid="{67A4CDAB-788E-B241-BA14-C8CFF49550F0}"/>
+    <hyperlink ref="B16" r:id="rId10" xr:uid="{8CB4B3FE-0B5D-F74A-880A-70D8FB9F49EC}"/>
+    <hyperlink ref="B3" r:id="rId11" xr:uid="{839367A2-FB5F-974D-8757-95B772960118}"/>
+    <hyperlink ref="B6" r:id="rId12" xr:uid="{10E6BA87-5EA2-644C-953B-BA116FF940DC}"/>
+    <hyperlink ref="B7" r:id="rId13" xr:uid="{A0F09149-FBF7-314A-B72B-854C8AC5AEA2}"/>
+    <hyperlink ref="B17" r:id="rId14" xr:uid="{85FD1496-9164-284D-BAD5-FE14E690BD15}"/>
+    <hyperlink ref="B18" r:id="rId15" xr:uid="{05FD0267-EE9A-5C4F-9E39-1E61D24FA86C}"/>
+    <hyperlink ref="B13" r:id="rId16" xr:uid="{5FB7E64D-4762-3B49-992C-E2256B3F9446}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/parts_get_ag.xlsx
+++ b/parts_get_ag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yann/DEV/PROJECTS/ferraris-arduino-sensor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7A2754-D33B-9F4F-851E-4764C6F6AD95}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5126DEB6-8297-1C4D-8374-D8360D052A3E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33720" yWindow="3060" windowWidth="31640" windowHeight="19040" xr2:uid="{9FE2430C-C6B5-7443-8EE7-8D272F4FF6B3}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>https://www.amazon.de/Elegoo-Hauptplatine-ATmega328P-ATMEGA16U2-Kompatibel/dp/B01EWOE0UU/</t>
   </si>
   <si>
-    <t>https://www.digikey.de/product-detail/en/hirose-electric-co-ltd/DF1BZ-4DP-2.5DSA/H11042-ND/1033172</t>
-  </si>
-  <si>
     <t>https://www.digikey.de/product-detail/en/hirose-electric-co-ltd/DF1B-4DS-2.5RC/H3810-ND/558521</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>https://www.digikey.de/product-detail/en/stackpole-electronics-inc/CF14JT680K/CF14JT680KCT-ND/1830419</t>
   </si>
   <si>
-    <t>https://www.digikey.de/product-detail/en/yageo/FMP100JR-52-100R/100WCT-ND/2058886</t>
-  </si>
-  <si>
     <t>Male 4 Pin Header</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>Potentiometer 10 kOhm 10% 1/2W</t>
   </si>
   <si>
-    <t>https://www.digikey.de/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=257332804&amp;uq=636588606439420778</t>
-  </si>
-  <si>
     <t>100 Ohm 5% 1/2W</t>
   </si>
   <si>
@@ -151,6 +142,15 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/cree-inc/C5SMF-BJE-CR0U0451/C5SMF-BJE-CR0U0451-ND/4793773</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/en/nidec-copal-electronics/CT6EP103/CT6EP103-ND/738304</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/en/hirose-electric-co-ltd/DF1BZ-4DP-2.5DS/H11025-ND/1033155</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/en/stackpole-electronics-inc/CFM12JT100R/S100HCT-ND/2617546</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -573,16 +573,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>1</v>
@@ -615,235 +615,235 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
       <c r="D3" s="3">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" ref="E3:E16" si="0">D3*C3</f>
-        <v>17.04</v>
+        <v>17.36</v>
       </c>
       <c r="F3" s="5">
         <v>0.19</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" ref="G3:G18" si="1">E3*F3+E3</f>
-        <v>20.2776</v>
+        <v>20.6584</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4" s="3">
-        <v>0.26500000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="0"/>
-        <v>2.6500000000000004</v>
+        <v>3.1</v>
       </c>
       <c r="F4" s="5">
         <v>0.19</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="1"/>
-        <v>3.1535000000000002</v>
+        <v>3.6890000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5" s="3">
-        <v>0.17599999999999999</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>1.7599999999999998</v>
+        <v>1.79</v>
       </c>
       <c r="F5" s="5">
         <v>0.19</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="1"/>
-        <v>2.0943999999999998</v>
+        <v>2.1301000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
       <c r="D6" s="3">
-        <v>4.5199999999999997E-2</v>
+        <v>4.6199999999999998E-2</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>2.2599999999999998</v>
+        <v>2.31</v>
       </c>
       <c r="F6" s="5">
         <v>0.19</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="1"/>
-        <v>2.6893999999999996</v>
+        <v>2.7488999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" s="3">
-        <v>1.39</v>
+        <v>1.4159999999999999</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>6.9499999999999993</v>
+        <v>7.08</v>
       </c>
       <c r="F7" s="5">
         <v>0.19</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="1"/>
-        <v>8.2704999999999984</v>
+        <v>8.4252000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>25</v>
       </c>
       <c r="D8" s="3">
-        <v>0.75800000000000001</v>
+        <v>0.77280000000000004</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>18.95</v>
+        <v>19.32</v>
       </c>
       <c r="F8" s="5">
         <v>0.19</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="1"/>
-        <v>22.5505</v>
+        <v>22.9908</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9" s="3">
-        <v>0.16600000000000001</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>1.6600000000000001</v>
+        <v>1.6900000000000002</v>
       </c>
       <c r="F9" s="5">
         <v>0.19</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="1"/>
-        <v>1.9754</v>
+        <v>2.0111000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
       <c r="D10" s="3">
-        <v>0.57899999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>5.7899999999999991</v>
+        <v>5.8999999999999995</v>
       </c>
       <c r="F10" s="5">
         <v>0.19</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="1"/>
-        <v>6.8900999999999986</v>
+        <v>7.020999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>50</v>
       </c>
       <c r="D11" s="3">
-        <v>1.78E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>0.89</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="F11" s="5">
         <v>0.19</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="1"/>
-        <v>1.0590999999999999</v>
+        <v>1.071</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -865,35 +865,35 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.57299999999999995</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="0"/>
-        <v>5.7299999999999995</v>
+        <v>5.84</v>
       </c>
       <c r="F13" s="5">
         <v>0.19</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="1"/>
-        <v>6.8186999999999998</v>
+        <v>6.9496000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -915,10 +915,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -940,10 +940,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -965,10 +965,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="8">
         <v>9</v>
@@ -990,10 +990,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="8">
         <v>9</v>
@@ -1015,18 +1015,18 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E19" s="4">
         <f>SUM(E2:E18)</f>
-        <v>229.34999999999997</v>
+        <v>230.95999999999998</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G19" s="6">
         <f>SUM(G2:G18)</f>
-        <v>243.63799999999998</v>
+        <v>245.5539</v>
       </c>
     </row>
   </sheetData>
@@ -1047,6 +1047,7 @@
     <hyperlink ref="B17" r:id="rId14" xr:uid="{85FD1496-9164-284D-BAD5-FE14E690BD15}"/>
     <hyperlink ref="B18" r:id="rId15" xr:uid="{05FD0267-EE9A-5C4F-9E39-1E61D24FA86C}"/>
     <hyperlink ref="B13" r:id="rId16" xr:uid="{5FB7E64D-4762-3B49-992C-E2256B3F9446}"/>
+    <hyperlink ref="B14" r:id="rId17" xr:uid="{3D529545-7AE1-9B46-9B0A-67F4571FD33C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/parts_get_ag.xlsx
+++ b/parts_get_ag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yann/DEV/PROJECTS/ferraris-arduino-sensor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5126DEB6-8297-1C4D-8374-D8360D052A3E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A450064-3658-FA4A-8EDC-95339F0B3CDC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33720" yWindow="3060" windowWidth="31640" windowHeight="19040" xr2:uid="{9FE2430C-C6B5-7443-8EE7-8D272F4FF6B3}"/>
   </bookViews>
@@ -555,7 +555,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/parts_get_ag.xlsx
+++ b/parts_get_ag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yann/DEV/PROJECTS/ferraris-arduino-sensor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A450064-3658-FA4A-8EDC-95339F0B3CDC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3286C87-BE05-BC48-9A80-54053CD1B45E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33720" yWindow="3060" windowWidth="31640" windowHeight="19040" xr2:uid="{9FE2430C-C6B5-7443-8EE7-8D272F4FF6B3}"/>
   </bookViews>
@@ -555,7 +555,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -974,18 +974,18 @@
         <v>9</v>
       </c>
       <c r="D17" s="10">
-        <v>2.4900000000000002</v>
+        <v>3.34</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" ref="E17:E18" si="2">D17*C17</f>
-        <v>22.410000000000004</v>
+        <v>30.06</v>
       </c>
       <c r="F17" s="11">
         <v>0</v>
       </c>
       <c r="G17" s="10">
         <f t="shared" si="1"/>
-        <v>22.410000000000004</v>
+        <v>30.06</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1019,14 +1019,14 @@
       </c>
       <c r="E19" s="4">
         <f>SUM(E2:E18)</f>
-        <v>230.95999999999998</v>
+        <v>238.60999999999999</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G19" s="6">
         <f>SUM(G2:G18)</f>
-        <v>245.5539</v>
+        <v>253.2039</v>
       </c>
     </row>
   </sheetData>

--- a/parts_get_ag.xlsx
+++ b/parts_get_ag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yann/DEV/PROJECTS/ferraris-arduino-sensor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3286C87-BE05-BC48-9A80-54053CD1B45E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B628EB-3411-EA44-95AC-D09797266B44}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33720" yWindow="3060" windowWidth="31640" windowHeight="19040" xr2:uid="{9FE2430C-C6B5-7443-8EE7-8D272F4FF6B3}"/>
+    <workbookView xWindow="-34560" yWindow="1960" windowWidth="31640" windowHeight="19040" xr2:uid="{9FE2430C-C6B5-7443-8EE7-8D272F4FF6B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Get-AG" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Part</t>
   </si>
@@ -151,6 +151,36 @@
   </si>
   <si>
     <t>https://www.digikey.de/product-detail/en/stackpole-electronics-inc/CFM12JT100R/S100HCT-ND/2617546</t>
+  </si>
+  <si>
+    <t>USB Hub</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/D-Link-DUB-H7-7-port-unterst%C3%BCtzt-Windows/dp/B0000B0DL7</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/Raspberry-Pi-3-Model-B/dp/B01CEFWQFA</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 3</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/gp/product/B01CCM69HQ</t>
+  </si>
+  <si>
+    <t>Raspberry Netzteil</t>
+  </si>
+  <si>
+    <t>Raspberry Gehäuse</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/offizielles-Geh%C3%A4use-Raspberry-Pi-himbeer/dp/B01DKMZ6E4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B0749WNBLJ/ref=psdc_316913011_t3_B073S9SFK2</t>
+  </si>
+  <si>
+    <t>Micro SD</t>
   </si>
 </sst>
 </file>
@@ -193,18 +223,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -233,10 +257,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -552,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C328F3-31EC-2A4D-B093-1EC71F681AEA}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -615,439 +639,568 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>2.17</v>
+        <v>31.99</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E16" si="0">D3*C3</f>
-        <v>17.36</v>
+        <f t="shared" ref="E3:E5" si="0">D3*C3</f>
+        <v>31.99</v>
       </c>
       <c r="F3" s="5">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G18" si="1">E3*F3+E3</f>
-        <v>20.6584</v>
+        <f t="shared" ref="G3:G5" si="1">E3*F3+E3</f>
+        <v>31.99</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.31</v>
+        <v>12.9</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="0"/>
-        <v>3.1</v>
+        <v>12.9</v>
       </c>
       <c r="F4" s="5">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="1"/>
-        <v>3.6890000000000001</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>0.17899999999999999</v>
+        <v>6.44</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>1.79</v>
+        <v>6.44</v>
       </c>
       <c r="F5" s="5">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="1"/>
-        <v>2.1301000000000001</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>4.6199999999999998E-2</v>
+        <v>12.99</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="0"/>
-        <v>2.31</v>
+        <f t="shared" ref="E6:E7" si="2">D6*C6</f>
+        <v>12.99</v>
       </c>
       <c r="F6" s="5">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="1"/>
-        <v>2.7488999999999999</v>
+        <f t="shared" ref="G6:G7" si="3">E6*F6+E6</f>
+        <v>12.99</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1.4159999999999999</v>
-      </c>
       <c r="E7" s="3">
-        <f t="shared" si="0"/>
-        <v>7.08</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="F7" s="5">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="1"/>
-        <v>8.4252000000000002</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D8" s="3">
-        <v>0.77280000000000004</v>
+        <v>2.17</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="0"/>
-        <v>19.32</v>
+        <f t="shared" ref="E8:E21" si="4">D8*C8</f>
+        <v>17.36</v>
       </c>
       <c r="F8" s="5">
         <v>0.19</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="1"/>
-        <v>22.9908</v>
+        <f t="shared" ref="G8:G23" si="5">E8*F8+E8</f>
+        <v>20.6584</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9" s="3">
-        <v>0.16900000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="0"/>
-        <v>1.6900000000000002</v>
+        <f t="shared" si="4"/>
+        <v>3.1</v>
       </c>
       <c r="F9" s="5">
         <v>0.19</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="1"/>
-        <v>2.0111000000000003</v>
+        <f t="shared" si="5"/>
+        <v>3.6890000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
       <c r="D10" s="3">
-        <v>0.59</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="0"/>
-        <v>5.8999999999999995</v>
+        <f t="shared" si="4"/>
+        <v>1.79</v>
       </c>
       <c r="F10" s="5">
         <v>0.19</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="1"/>
-        <v>7.020999999999999</v>
+        <f t="shared" si="5"/>
+        <v>2.1301000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>50</v>
       </c>
       <c r="D11" s="3">
-        <v>1.7999999999999999E-2</v>
+        <v>4.6199999999999998E-2</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.89999999999999991</v>
+        <f t="shared" si="4"/>
+        <v>2.31</v>
       </c>
       <c r="F11" s="5">
         <v>0.19</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="1"/>
-        <v>1.071</v>
+        <f t="shared" si="5"/>
+        <v>2.7488999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D12" s="3">
-        <v>4.8000000000000001E-2</v>
+        <v>1.4159999999999999</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.48</v>
+        <f t="shared" si="4"/>
+        <v>7.08</v>
       </c>
       <c r="F12" s="5">
         <v>0.19</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="1"/>
-        <v>0.57119999999999993</v>
+        <f t="shared" si="5"/>
+        <v>8.4252000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D13" s="3">
-        <v>0.58399999999999996</v>
+        <v>0.77280000000000004</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="0"/>
-        <v>5.84</v>
+        <f t="shared" si="4"/>
+        <v>19.32</v>
       </c>
       <c r="F13" s="5">
         <v>0.19</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="1"/>
-        <v>6.9496000000000002</v>
+        <f t="shared" si="5"/>
+        <v>22.9908</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0.18</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="0"/>
-        <v>1.7999999999999998</v>
+        <f t="shared" si="4"/>
+        <v>1.6900000000000002</v>
       </c>
       <c r="F14" s="5">
         <v>0.19</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="1"/>
-        <v>2.1419999999999999</v>
+        <f t="shared" si="5"/>
+        <v>2.0111000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>4.8000000000000001E-2</v>
+        <v>0.59</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="0"/>
-        <v>0.48</v>
+        <f t="shared" si="4"/>
+        <v>5.8999999999999995</v>
       </c>
       <c r="F15" s="5">
         <v>0.19</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="1"/>
-        <v>0.57119999999999993</v>
+        <f t="shared" si="5"/>
+        <v>7.020999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="4"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="5"/>
+        <v>1.071</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="4"/>
+        <v>0.48</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="5"/>
+        <v>0.57119999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="4"/>
+        <v>5.84</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="5"/>
+        <v>6.9496000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="4"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="5"/>
+        <v>2.1419999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="4"/>
+        <v>0.48</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="5"/>
+        <v>0.57119999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16">
+      <c r="C21">
         <v>10</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D21" s="3">
         <v>0.876</v>
       </c>
-      <c r="E16" s="3">
-        <f t="shared" si="0"/>
+      <c r="E21" s="3">
+        <f t="shared" si="4"/>
         <v>8.76</v>
       </c>
-      <c r="F16" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="1"/>
+      <c r="F21" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="5"/>
         <v>10.4244</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B22" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C22" s="8">
         <v>9</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D22" s="10">
         <v>3.34</v>
       </c>
-      <c r="E17" s="10">
-        <f t="shared" ref="E17:E18" si="2">D17*C17</f>
+      <c r="E22" s="10">
+        <f t="shared" ref="E22:E23" si="6">D22*C22</f>
         <v>30.06</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F22" s="11">
         <v>0</v>
       </c>
-      <c r="G17" s="10">
-        <f t="shared" si="1"/>
+      <c r="G22" s="10">
+        <f t="shared" si="5"/>
         <v>30.06</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C23" s="8">
         <v>9</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D23" s="10">
         <v>4.1399999999999997</v>
       </c>
-      <c r="E18" s="10">
-        <f t="shared" si="2"/>
+      <c r="E23" s="10">
+        <f t="shared" si="6"/>
         <v>37.26</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F23" s="11">
         <v>0</v>
       </c>
-      <c r="G18" s="10">
-        <f t="shared" si="1"/>
+      <c r="G23" s="10">
+        <f t="shared" si="5"/>
         <v>37.26</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D19" s="2" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="4">
-        <f>SUM(E2:E18)</f>
-        <v>238.60999999999999</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="E24" s="4">
+        <f>SUM(E2:E23)</f>
+        <v>327.93</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="6">
-        <f>SUM(G2:G18)</f>
-        <v>253.2039</v>
+      <c r="G24" s="6">
+        <f>SUM(G2:G23)</f>
+        <v>342.52389999999991</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" xr:uid="{589C7767-3253-5645-B38D-34299D0D76DB}"/>
-    <hyperlink ref="B10" r:id="rId2" xr:uid="{9CBC4C0E-F537-B942-9C20-F228646F3613}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{21214CD7-3DE8-2642-89EB-9447ACDDA84F}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{028863B9-0798-9347-82AF-AAED23880E47}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{4E6E5FC3-EBA9-1B47-BBA7-74C05929F1BE}"/>
+    <hyperlink ref="B16" r:id="rId1" xr:uid="{589C7767-3253-5645-B38D-34299D0D76DB}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{9CBC4C0E-F537-B942-9C20-F228646F3613}"/>
+    <hyperlink ref="B13" r:id="rId3" xr:uid="{21214CD7-3DE8-2642-89EB-9447ACDDA84F}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{028863B9-0798-9347-82AF-AAED23880E47}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{4E6E5FC3-EBA9-1B47-BBA7-74C05929F1BE}"/>
     <hyperlink ref="B2" r:id="rId6" xr:uid="{036C82DB-48E0-5941-A9BA-16BC36CBA1EB}"/>
-    <hyperlink ref="B12" r:id="rId7" xr:uid="{B1573C03-5BE5-5B4E-BCC2-A7C85A00C79B}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{9D31D13F-4F52-E541-BCC1-489A72999F1E}"/>
-    <hyperlink ref="B15" r:id="rId9" xr:uid="{67A4CDAB-788E-B241-BA14-C8CFF49550F0}"/>
-    <hyperlink ref="B16" r:id="rId10" xr:uid="{8CB4B3FE-0B5D-F74A-880A-70D8FB9F49EC}"/>
-    <hyperlink ref="B3" r:id="rId11" xr:uid="{839367A2-FB5F-974D-8757-95B772960118}"/>
-    <hyperlink ref="B6" r:id="rId12" xr:uid="{10E6BA87-5EA2-644C-953B-BA116FF940DC}"/>
-    <hyperlink ref="B7" r:id="rId13" xr:uid="{A0F09149-FBF7-314A-B72B-854C8AC5AEA2}"/>
-    <hyperlink ref="B17" r:id="rId14" xr:uid="{85FD1496-9164-284D-BAD5-FE14E690BD15}"/>
-    <hyperlink ref="B18" r:id="rId15" xr:uid="{05FD0267-EE9A-5C4F-9E39-1E61D24FA86C}"/>
-    <hyperlink ref="B13" r:id="rId16" xr:uid="{5FB7E64D-4762-3B49-992C-E2256B3F9446}"/>
-    <hyperlink ref="B14" r:id="rId17" xr:uid="{3D529545-7AE1-9B46-9B0A-67F4571FD33C}"/>
+    <hyperlink ref="B17" r:id="rId7" xr:uid="{B1573C03-5BE5-5B4E-BCC2-A7C85A00C79B}"/>
+    <hyperlink ref="B14" r:id="rId8" xr:uid="{9D31D13F-4F52-E541-BCC1-489A72999F1E}"/>
+    <hyperlink ref="B20" r:id="rId9" xr:uid="{67A4CDAB-788E-B241-BA14-C8CFF49550F0}"/>
+    <hyperlink ref="B21" r:id="rId10" xr:uid="{8CB4B3FE-0B5D-F74A-880A-70D8FB9F49EC}"/>
+    <hyperlink ref="B8" r:id="rId11" xr:uid="{839367A2-FB5F-974D-8757-95B772960118}"/>
+    <hyperlink ref="B11" r:id="rId12" xr:uid="{10E6BA87-5EA2-644C-953B-BA116FF940DC}"/>
+    <hyperlink ref="B12" r:id="rId13" xr:uid="{A0F09149-FBF7-314A-B72B-854C8AC5AEA2}"/>
+    <hyperlink ref="B22" r:id="rId14" xr:uid="{85FD1496-9164-284D-BAD5-FE14E690BD15}"/>
+    <hyperlink ref="B23" r:id="rId15" xr:uid="{05FD0267-EE9A-5C4F-9E39-1E61D24FA86C}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{5FB7E64D-4762-3B49-992C-E2256B3F9446}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{3D529545-7AE1-9B46-9B0A-67F4571FD33C}"/>
+    <hyperlink ref="B7" r:id="rId18" xr:uid="{B8167750-E114-6B4E-9121-775D0D03D1C5}"/>
+    <hyperlink ref="B4" r:id="rId19" xr:uid="{F394034F-67DE-E940-B86E-031D3428B279}"/>
+    <hyperlink ref="B5" r:id="rId20" xr:uid="{F3F6A16A-1D41-8540-B455-36CCC5193FF1}"/>
+    <hyperlink ref="B6" r:id="rId21" xr:uid="{756EB27B-16B6-A948-BD17-748047A19AC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/parts_get_ag.xlsx
+++ b/parts_get_ag.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yann/DEV/PROJECTS/ferraris-arduino-sensor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertwehlitz/Nextcloud/FG SEITS/SAB_SEPL/Projektmanagement/Angebot GET AG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B628EB-3411-EA44-95AC-D09797266B44}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EF494471-0882-E347-A879-2E88C8572966}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34560" yWindow="1960" windowWidth="31640" windowHeight="19040" xr2:uid="{9FE2430C-C6B5-7443-8EE7-8D272F4FF6B3}"/>
+    <workbookView xWindow="-2640" yWindow="-24000" windowWidth="38400" windowHeight="24000" xr2:uid="{9FE2430C-C6B5-7443-8EE7-8D272F4FF6B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Get-AG" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -263,8 +263,8 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -280,7 +280,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -579,7 +579,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -623,17 +623,18 @@
         <v>8</v>
       </c>
       <c r="D2" s="3">
-        <v>11.81</v>
+        <f>E2/C2</f>
+        <v>9.5661000000000005</v>
       </c>
       <c r="E2" s="3">
-        <f>D2*C2</f>
-        <v>94.48</v>
+        <f>G2*(1-F2)</f>
+        <v>76.528800000000004</v>
       </c>
       <c r="F2" s="5">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="G2" s="3">
-        <f>E2*F2+E2</f>
+        <f>C2*11.81</f>
         <v>94.48</v>
       </c>
     </row>
@@ -648,17 +649,18 @@
         <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>31.99</v>
+        <f>E3/C3</f>
+        <v>25.911899999999999</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E5" si="0">D3*C3</f>
-        <v>31.99</v>
+        <f>G3*(1-F3)</f>
+        <v>25.911899999999999</v>
       </c>
       <c r="F3" s="5">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G5" si="1">E3*F3+E3</f>
+        <f>C3*31.99</f>
         <v>31.99</v>
       </c>
     </row>
@@ -673,17 +675,18 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>12.9</v>
+        <f>E4/C4</f>
+        <v>10.449000000000002</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" si="0"/>
-        <v>12.9</v>
+        <f>G4*(1-F4)</f>
+        <v>10.449000000000002</v>
       </c>
       <c r="F4" s="5">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" si="1"/>
+        <f>C4*12.9</f>
         <v>12.9</v>
       </c>
     </row>
@@ -698,17 +701,18 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>6.44</v>
+        <f>E5/C5</f>
+        <v>5.216400000000001</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="0"/>
-        <v>6.44</v>
+        <f>G5*(1-F5)</f>
+        <v>5.216400000000001</v>
       </c>
       <c r="F5" s="5">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="1"/>
+        <f>C5*6.44</f>
         <v>6.44</v>
       </c>
     </row>
@@ -723,17 +727,18 @@
         <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>12.99</v>
+        <f>E6/C6</f>
+        <v>10.5219</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" ref="E6:E7" si="2">D6*C6</f>
-        <v>12.99</v>
+        <f>G6*(1-F6)</f>
+        <v>10.5219</v>
       </c>
       <c r="F6" s="5">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" ref="G6:G7" si="3">E6*F6+E6</f>
+        <f>C6*12.99</f>
         <v>12.99</v>
       </c>
     </row>
@@ -748,17 +753,18 @@
         <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>25</v>
+        <f>E7/C7</f>
+        <v>20.25</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <f>G7*(1-F7)</f>
+        <v>20.25</v>
       </c>
       <c r="F7" s="5">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="3"/>
+        <f>C7*25</f>
         <v>25</v>
       </c>
     </row>
@@ -776,14 +782,14 @@
         <v>2.17</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" ref="E8:E21" si="4">D8*C8</f>
+        <f t="shared" ref="E8:E21" si="0">D8*C8</f>
         <v>17.36</v>
       </c>
       <c r="F8" s="5">
         <v>0.19</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" ref="G8:G23" si="5">E8*F8+E8</f>
+        <f t="shared" ref="G8:G23" si="1">E8*F8+E8</f>
         <v>20.6584</v>
       </c>
     </row>
@@ -801,14 +807,14 @@
         <v>0.31</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.1</v>
       </c>
       <c r="F9" s="5">
         <v>0.19</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>3.6890000000000001</v>
       </c>
     </row>
@@ -826,14 +832,14 @@
         <v>0.17899999999999999</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1.79</v>
       </c>
       <c r="F10" s="5">
         <v>0.19</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>2.1301000000000001</v>
       </c>
     </row>
@@ -851,14 +857,14 @@
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.31</v>
       </c>
       <c r="F11" s="5">
         <v>0.19</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>2.7488999999999999</v>
       </c>
     </row>
@@ -876,14 +882,14 @@
         <v>1.4159999999999999</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>7.08</v>
       </c>
       <c r="F12" s="5">
         <v>0.19</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8.4252000000000002</v>
       </c>
     </row>
@@ -901,14 +907,14 @@
         <v>0.77280000000000004</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>19.32</v>
       </c>
       <c r="F13" s="5">
         <v>0.19</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>22.9908</v>
       </c>
     </row>
@@ -926,14 +932,14 @@
         <v>0.16900000000000001</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1.6900000000000002</v>
       </c>
       <c r="F14" s="5">
         <v>0.19</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>2.0111000000000003</v>
       </c>
     </row>
@@ -951,14 +957,14 @@
         <v>0.59</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>5.8999999999999995</v>
       </c>
       <c r="F15" s="5">
         <v>0.19</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>7.020999999999999</v>
       </c>
     </row>
@@ -976,14 +982,14 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="F16" s="5">
         <v>0.19</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.071</v>
       </c>
     </row>
@@ -1001,14 +1007,14 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
       <c r="F17" s="5">
         <v>0.19</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.57119999999999993</v>
       </c>
     </row>
@@ -1026,14 +1032,14 @@
         <v>0.58399999999999996</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>5.84</v>
       </c>
       <c r="F18" s="5">
         <v>0.19</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>6.9496000000000002</v>
       </c>
     </row>
@@ -1051,14 +1057,14 @@
         <v>0.18</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="F19" s="5">
         <v>0.19</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>2.1419999999999999</v>
       </c>
     </row>
@@ -1076,14 +1082,14 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
       <c r="F20" s="5">
         <v>0.19</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.57119999999999993</v>
       </c>
     </row>
@@ -1101,14 +1107,14 @@
         <v>0.876</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>8.76</v>
       </c>
       <c r="F21" s="5">
         <v>0.19</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10.4244</v>
       </c>
     </row>
@@ -1122,18 +1128,19 @@
       <c r="C22" s="8">
         <v>9</v>
       </c>
-      <c r="D22" s="10">
-        <v>3.34</v>
-      </c>
-      <c r="E22" s="10">
-        <f t="shared" ref="E22:E23" si="6">D22*C22</f>
-        <v>30.06</v>
+      <c r="D22" s="3">
+        <f>E22/C22</f>
+        <v>2.7054</v>
+      </c>
+      <c r="E22" s="3">
+        <f>G22*(1-F22)</f>
+        <v>24.348600000000001</v>
       </c>
       <c r="F22" s="11">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="G22" s="10">
-        <f t="shared" si="5"/>
+        <f>C22*3.34</f>
         <v>30.06</v>
       </c>
     </row>
@@ -1147,18 +1154,19 @@
       <c r="C23" s="8">
         <v>9</v>
       </c>
-      <c r="D23" s="10">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="E23" s="10">
-        <f t="shared" si="6"/>
-        <v>37.26</v>
+      <c r="D23" s="3">
+        <f>E23/C23</f>
+        <v>3.3534000000000002</v>
+      </c>
+      <c r="E23" s="3">
+        <f>G23*(1-F23)</f>
+        <v>30.180600000000002</v>
       </c>
       <c r="F23" s="11">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="G23" s="10">
-        <f t="shared" si="5"/>
+        <f>C23*4.14</f>
         <v>37.26</v>
       </c>
     </row>
@@ -1168,7 +1176,7 @@
       </c>
       <c r="E24" s="4">
         <f>SUM(E2:E23)</f>
-        <v>327.93</v>
+        <v>280.21719999999999</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>29</v>
